--- a/docs/ACR2017/tables.xlsx
+++ b/docs/ACR2017/tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Prevalence" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="49">
   <si>
     <t>outcomeCategory</t>
   </si>
@@ -651,13 +651,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -704,7 +707,37 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="28">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -768,33 +801,6 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -815,55 +821,55 @@
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
     <tableColumn id="3" name="timeWindow"/>
-    <tableColumn id="4" name="MPCD TNF" dataDxfId="17"/>
-    <tableColumn id="5" name="MPCD DMARD" dataDxfId="16"/>
-    <tableColumn id="6" name="MPCD NSAID or no exposure" dataDxfId="15"/>
-    <tableColumn id="7" name="Marketscan TNF" dataDxfId="14"/>
-    <tableColumn id="8" name="Marketscan DMARD" dataDxfId="13"/>
-    <tableColumn id="9" name="Marketscan NSAID or no exposure" dataDxfId="12"/>
-    <tableColumn id="10" name="Medicare TNF" dataDxfId="11"/>
-    <tableColumn id="11" name="Medicare DMARD" dataDxfId="10"/>
-    <tableColumn id="12" name="Medicare NSAID or no exposure" dataDxfId="9"/>
+    <tableColumn id="4" name="MPCD TNF" dataDxfId="27"/>
+    <tableColumn id="5" name="MPCD DMARD" dataDxfId="26"/>
+    <tableColumn id="6" name="MPCD NSAID or no exposure" dataDxfId="25"/>
+    <tableColumn id="7" name="Marketscan TNF" dataDxfId="24"/>
+    <tableColumn id="8" name="Marketscan DMARD" dataDxfId="23"/>
+    <tableColumn id="9" name="Marketscan NSAID or no exposure" dataDxfId="22"/>
+    <tableColumn id="10" name="Medicare TNF" dataDxfId="21"/>
+    <tableColumn id="11" name="Medicare DMARD" dataDxfId="20"/>
+    <tableColumn id="12" name="Medicare NSAID or no exposure" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K15" totalsRowShown="0">
-  <autoFilter ref="A1:K15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K22" totalsRowShown="0">
+  <autoFilter ref="A1:K22"/>
   <tableColumns count="11">
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
-    <tableColumn id="3" name="MPCD TNF" dataDxfId="26"/>
-    <tableColumn id="4" name="MPCD NSAID or no exposure" dataDxfId="25"/>
-    <tableColumn id="5" name="MPCD p-value" dataDxfId="24"/>
-    <tableColumn id="6" name="Marketscan TNF" dataDxfId="23"/>
-    <tableColumn id="7" name="Marketscan NSAID or no exposure" dataDxfId="22"/>
-    <tableColumn id="8" name="Marketscan p-value" dataDxfId="21"/>
-    <tableColumn id="9" name="Medicare TNF" dataDxfId="20"/>
-    <tableColumn id="10" name="Medicare NSAID or no exposure" dataDxfId="19"/>
-    <tableColumn id="11" name="Medicare p-value" dataDxfId="18"/>
+    <tableColumn id="3" name="MPCD TNF" dataDxfId="18"/>
+    <tableColumn id="4" name="MPCD NSAID or no exposure" dataDxfId="1"/>
+    <tableColumn id="5" name="MPCD p-value" dataDxfId="2"/>
+    <tableColumn id="6" name="Marketscan TNF" dataDxfId="0"/>
+    <tableColumn id="7" name="Marketscan NSAID or no exposure" dataDxfId="17"/>
+    <tableColumn id="8" name="Marketscan p-value" dataDxfId="16"/>
+    <tableColumn id="9" name="Medicare TNF" dataDxfId="15"/>
+    <tableColumn id="10" name="Medicare NSAID or no exposure" dataDxfId="14"/>
+    <tableColumn id="11" name="Medicare p-value" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K15" totalsRowShown="0">
-  <autoFilter ref="A1:K15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:K22" totalsRowShown="0" dataDxfId="12">
+  <autoFilter ref="A1:K22"/>
   <tableColumns count="11">
     <tableColumn id="1" name="outcomeCategory"/>
     <tableColumn id="2" name="disease"/>
-    <tableColumn id="3" name="MPCD TNF" dataDxfId="8"/>
-    <tableColumn id="4" name="MPCD DMARD" dataDxfId="7"/>
-    <tableColumn id="5" name="MPCD p-value" dataDxfId="6"/>
-    <tableColumn id="6" name="Marketscan TNF" dataDxfId="5"/>
-    <tableColumn id="7" name="Marketscan DMARD" dataDxfId="4"/>
-    <tableColumn id="8" name="Marketscan p-value" dataDxfId="3"/>
-    <tableColumn id="9" name="Medicare TNF" dataDxfId="2"/>
-    <tableColumn id="10" name="Medicare DMARD" dataDxfId="1"/>
-    <tableColumn id="11" name="Medicare p-value" dataDxfId="0"/>
+    <tableColumn id="3" name="MPCD TNF" dataDxfId="11"/>
+    <tableColumn id="4" name="MPCD DMARD" dataDxfId="10"/>
+    <tableColumn id="5" name="MPCD p-value" dataDxfId="9"/>
+    <tableColumn id="6" name="Marketscan TNF" dataDxfId="8"/>
+    <tableColumn id="7" name="Marketscan DMARD" dataDxfId="7"/>
+    <tableColumn id="8" name="Marketscan p-value" dataDxfId="6"/>
+    <tableColumn id="9" name="Medicare TNF" dataDxfId="5"/>
+    <tableColumn id="10" name="Medicare DMARD" dataDxfId="4"/>
+    <tableColumn id="11" name="Medicare p-value" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1134,7 +1140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8:L9"/>
     </sheetView>
   </sheetViews>
@@ -2000,59 +2006,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2408,141 +2412,386 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1.7000000000000001E-2</v>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="I12" s="1">
-        <v>5.3</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="1">
-        <v>7.8</v>
+        <v>0.1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="1">
         <v>0.1</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.3</v>
-      </c>
       <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="F13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="1">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I13" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="J13" s="1">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C22" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D22" s="1">
         <v>3.9</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.9</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G22" s="1">
         <v>0.8</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J22" s="1">
         <v>2.5</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2557,25 +2806,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:K9"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2965,141 +3214,386 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C12" s="1">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
-      <c r="E12" s="1">
-        <v>2.9000000000000001E-2</v>
+      <c r="E12" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F12" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G12" s="1">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I12" s="1">
-        <v>5.3</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="1">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
         <v>0.1</v>
       </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="1">
         <v>0.1</v>
       </c>
-      <c r="G13" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>43</v>
+      <c r="K13" s="1">
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="F14" s="1">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G14" s="1">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="1">
-        <v>2.5</v>
+        <v>0.2</v>
       </c>
       <c r="J14" s="1">
-        <v>2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1.0999999999999999E-2</v>
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="J17" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C22" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D22" s="1">
         <v>5.2</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="E22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.9</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G22" s="1">
         <v>1.2</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="H22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J22" s="1">
         <v>3.1</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
